--- a/excel/业务表单.xlsx
+++ b/excel/业务表单.xlsx
@@ -1131,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1821,11 +1821,6 @@
       </c>
       <c r="F34" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="1">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
